--- a/web/Statistik/Players/SWS-IBL REGULAR SEASON 2017-Andre Adriano.xlsx
+++ b/web/Statistik/Players/SWS-IBL REGULAR SEASON 2017-Andre Adriano.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projek IBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projek IBL\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Game LOGS</t>
   </si>
@@ -107,20 +107,44 @@
     <t>PTS</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>PJE vs ASP</t>
-  </si>
-  <si>
-    <t>ASP vs PJE</t>
+    <t>PCF vs SWS</t>
+  </si>
+  <si>
+    <t>SWS vs PJE</t>
+  </si>
+  <si>
+    <t>SMP vs SWS</t>
+  </si>
+  <si>
+    <t>GRB vs SWS</t>
+  </si>
+  <si>
+    <t>SWS vs NSH</t>
+  </si>
+  <si>
+    <t>SWS vs BPJ</t>
+  </si>
+  <si>
+    <t>SWS vs HTS</t>
+  </si>
+  <si>
+    <t>JSB vs SWS</t>
+  </si>
+  <si>
+    <t>SWS vs ASP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +174,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -171,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,11 +226,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,15 +248,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,17 +544,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Y12:Z12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -530,34 +577,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -640,71 +687,71 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>42854</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7">
+        <v>42813</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="4">
-        <v>11.8</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M3" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T3" s="4">
         <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
         <v>0</v>
@@ -713,48 +760,48 @@
         <v>2</v>
       </c>
       <c r="Y3" s="4">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>42852</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7">
+        <v>42811</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
-        <v>18.73</v>
+        <v>19.11</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5">
-        <v>0.5</v>
+        <v>0.09</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -763,97 +810,1004 @@
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S4" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4">
         <v>3</v>
       </c>
       <c r="Y4" s="4">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="Z4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="A5" s="7">
+        <v>42805</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>4</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4">
+        <v>12</v>
+      </c>
+      <c r="T5" s="4">
+        <v>4</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="A6" s="7">
+        <v>42804</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N6" s="4">
+        <v>6</v>
+      </c>
+      <c r="O6" s="4">
+        <v>7</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>18</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>42797</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>31.28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>42791</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>32.69</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>4</v>
+      </c>
+      <c r="S8" s="4">
+        <v>4</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>42785</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37.04</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2</v>
+      </c>
+      <c r="S9" s="4">
+        <v>4</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>3</v>
+      </c>
+      <c r="V9" s="4">
+        <v>1</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>42784</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>4</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>8</v>
+      </c>
+      <c r="S10" s="4">
+        <v>8</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3</v>
+      </c>
+      <c r="V10" s="4">
+        <v>4</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>42778</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30.31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N11" s="4">
+        <v>5</v>
+      </c>
+      <c r="O11" s="4">
+        <v>7</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <v>4</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>42777</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>35.71</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>4</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>42776</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4">
+        <v>28.98</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3</v>
+      </c>
+      <c r="T13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42770</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.31</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>42756</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+      <c r="S15" s="4">
+        <v>5</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>42755</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>21.18</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4">
+        <v>3</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>-5</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
